--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5547783333333334</v>
+        <v>0.21247</v>
       </c>
       <c r="N2">
-        <v>1.664335</v>
+        <v>0.63741</v>
       </c>
       <c r="O2">
-        <v>0.1020236335783901</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="P2">
-        <v>0.1020236335783901</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="Q2">
-        <v>0.508935335315</v>
+        <v>0.2654516608466667</v>
       </c>
       <c r="R2">
-        <v>4.580418017835</v>
+        <v>2.38906494762</v>
       </c>
       <c r="S2">
-        <v>0.04025680569926914</v>
+        <v>0.01856989527296402</v>
       </c>
       <c r="T2">
-        <v>0.04025680569926912</v>
+        <v>0.01856989527296402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,27 +626,27 @@
         <v>14.252013</v>
       </c>
       <c r="O3">
-        <v>0.8736475241261235</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="P3">
-        <v>0.8736475241261233</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="Q3">
-        <v>4.358108803256999</v>
+        <v>5.935301487674</v>
       </c>
       <c r="R3">
-        <v>39.222979229313</v>
+        <v>53.41771338906599</v>
       </c>
       <c r="S3">
-        <v>0.3447265833888356</v>
+        <v>0.4152090316106145</v>
       </c>
       <c r="T3">
-        <v>0.3447265833888355</v>
+        <v>0.4152090316106144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>0.824043</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>2.472129</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.132294</v>
+        <v>0.21247</v>
       </c>
       <c r="N4">
-        <v>0.396882</v>
+        <v>0.63741</v>
       </c>
       <c r="O4">
-        <v>0.02432884229548655</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="P4">
-        <v>0.02432884229548654</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="Q4">
-        <v>0.121362149898</v>
+        <v>0.17508441621</v>
       </c>
       <c r="R4">
-        <v>1.092259349082</v>
+        <v>1.57575974589</v>
       </c>
       <c r="S4">
-        <v>0.009599750987353706</v>
+        <v>0.01224817830326478</v>
       </c>
       <c r="T4">
-        <v>0.009599750987353703</v>
+        <v>0.01224817830326478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,45 +732,45 @@
         <v>2.472129</v>
       </c>
       <c r="I5">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J5">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5547783333333334</v>
+        <v>4.750671</v>
       </c>
       <c r="N5">
-        <v>1.664335</v>
+        <v>14.252013</v>
       </c>
       <c r="O5">
-        <v>0.1020236335783901</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="P5">
-        <v>0.1020236335783901</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="Q5">
-        <v>0.457161202135</v>
+        <v>3.914757182853</v>
       </c>
       <c r="R5">
-        <v>4.114450819215</v>
+        <v>35.232814645677</v>
       </c>
       <c r="S5">
-        <v>0.0361614696613709</v>
+        <v>0.2738601471650078</v>
       </c>
       <c r="T5">
-        <v>0.03616146966137089</v>
+        <v>0.2738601471650077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.824043</v>
+        <v>0.040438</v>
       </c>
       <c r="H6">
-        <v>2.472129</v>
+        <v>0.121314</v>
       </c>
       <c r="I6">
-        <v>0.3544420875148125</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J6">
-        <v>0.3544420875148125</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>4.750671</v>
+        <v>0.21247</v>
       </c>
       <c r="N6">
-        <v>14.252013</v>
+        <v>0.63741</v>
       </c>
       <c r="O6">
-        <v>0.8736475241261235</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="P6">
-        <v>0.8736475241261233</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="Q6">
-        <v>3.914757182853</v>
+        <v>0.008591861860000001</v>
       </c>
       <c r="R6">
-        <v>35.232814645677</v>
+        <v>0.07732675674</v>
       </c>
       <c r="S6">
-        <v>0.3096574522034107</v>
+        <v>0.0006010509575682595</v>
       </c>
       <c r="T6">
-        <v>0.3096574522034107</v>
+        <v>0.0006010509575682595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.040438</v>
+      </c>
+      <c r="H7">
+        <v>0.121314</v>
+      </c>
+      <c r="I7">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="J7">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.824043</v>
-      </c>
-      <c r="H7">
-        <v>2.472129</v>
-      </c>
-      <c r="I7">
-        <v>0.3544420875148125</v>
-      </c>
-      <c r="J7">
-        <v>0.3544420875148125</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.132294</v>
+        <v>4.750671</v>
       </c>
       <c r="N7">
-        <v>0.396882</v>
+        <v>14.252013</v>
       </c>
       <c r="O7">
-        <v>0.02432884229548655</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="P7">
-        <v>0.02432884229548654</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="Q7">
-        <v>0.109015944642</v>
+        <v>0.192107633898</v>
       </c>
       <c r="R7">
-        <v>0.9811435017779999</v>
+        <v>1.728968705082</v>
       </c>
       <c r="S7">
-        <v>0.008623165650030915</v>
+        <v>0.01343905188328593</v>
       </c>
       <c r="T7">
-        <v>0.008623165650030913</v>
+        <v>0.01343905188328593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.172111</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H8">
-        <v>0.5163329999999999</v>
+        <v>1.615757</v>
       </c>
       <c r="I8">
-        <v>0.07402936755031217</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J8">
-        <v>0.07402936755031216</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5547783333333334</v>
+        <v>0.21247</v>
       </c>
       <c r="N8">
-        <v>1.664335</v>
+        <v>0.63741</v>
       </c>
       <c r="O8">
-        <v>0.1020236335783901</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="P8">
-        <v>0.1020236335783901</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="Q8">
-        <v>0.09548345372833333</v>
+        <v>0.1144332965966667</v>
       </c>
       <c r="R8">
-        <v>0.8593510835549999</v>
+        <v>1.02989966937</v>
       </c>
       <c r="S8">
-        <v>0.007552745068993009</v>
+        <v>0.00800527797325633</v>
       </c>
       <c r="T8">
-        <v>0.007552745068993007</v>
+        <v>0.00800527797325633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.172111</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H9">
-        <v>0.5163329999999999</v>
+        <v>1.615757</v>
       </c>
       <c r="I9">
-        <v>0.07402936755031217</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J9">
-        <v>0.07402936755031216</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,27 +998,27 @@
         <v>14.252013</v>
       </c>
       <c r="O9">
-        <v>0.8736475241261235</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="P9">
-        <v>0.8736475241261233</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="Q9">
-        <v>0.8176427364809998</v>
+        <v>2.558643307649</v>
       </c>
       <c r="R9">
-        <v>7.358784628328999</v>
+        <v>23.027789768841</v>
       </c>
       <c r="S9">
-        <v>0.06467557367295301</v>
+        <v>0.1789920549465224</v>
       </c>
       <c r="T9">
-        <v>0.06467557367295299</v>
+        <v>0.1789920549465224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.172111</v>
+        <v>0.227751</v>
       </c>
       <c r="H10">
-        <v>0.5163329999999999</v>
+        <v>0.683253</v>
       </c>
       <c r="I10">
-        <v>0.07402936755031217</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="J10">
-        <v>0.07402936755031216</v>
+        <v>0.07907531188751622</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.132294</v>
+        <v>0.21247</v>
       </c>
       <c r="N10">
-        <v>0.396882</v>
+        <v>0.63741</v>
       </c>
       <c r="O10">
-        <v>0.02432884229548655</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="P10">
-        <v>0.02432884229548654</v>
+        <v>0.04280958368903887</v>
       </c>
       <c r="Q10">
-        <v>0.022769252634</v>
+        <v>0.04839025497</v>
       </c>
       <c r="R10">
-        <v>0.204923273706</v>
+        <v>0.43551229473</v>
       </c>
       <c r="S10">
-        <v>0.001801048808366154</v>
+        <v>0.003385181181985475</v>
       </c>
       <c r="T10">
-        <v>0.001801048808366154</v>
+        <v>0.003385181181985475</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,365 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.227751</v>
+      </c>
+      <c r="H11">
+        <v>0.683253</v>
+      </c>
+      <c r="I11">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J11">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.3345336666666667</v>
-      </c>
-      <c r="H11">
-        <v>1.003601</v>
-      </c>
-      <c r="I11">
-        <v>0.1438915337637936</v>
-      </c>
-      <c r="J11">
-        <v>0.1438915337637936</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5547783333333334</v>
+        <v>4.750671</v>
       </c>
       <c r="N11">
-        <v>1.664335</v>
+        <v>14.252013</v>
       </c>
       <c r="O11">
-        <v>0.1020236335783901</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="P11">
-        <v>0.1020236335783901</v>
+        <v>0.9571904163109612</v>
       </c>
       <c r="Q11">
-        <v>0.1855920300372222</v>
+        <v>1.081970070921</v>
       </c>
       <c r="R11">
-        <v>1.670328270335</v>
+        <v>9.737730638288999</v>
       </c>
       <c r="S11">
-        <v>0.01468033711574982</v>
+        <v>0.07569013070553075</v>
       </c>
       <c r="T11">
-        <v>0.01468033711574982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.3345336666666667</v>
-      </c>
-      <c r="H12">
-        <v>1.003601</v>
-      </c>
-      <c r="I12">
-        <v>0.1438915337637936</v>
-      </c>
-      <c r="J12">
-        <v>0.1438915337637936</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>4.750671</v>
-      </c>
-      <c r="N12">
-        <v>14.252013</v>
-      </c>
-      <c r="O12">
-        <v>0.8736475241261235</v>
-      </c>
-      <c r="P12">
-        <v>0.8736475241261233</v>
-      </c>
-      <c r="Q12">
-        <v>1.589259388757</v>
-      </c>
-      <c r="R12">
-        <v>14.303334498813</v>
-      </c>
-      <c r="S12">
-        <v>0.1257104822154488</v>
-      </c>
-      <c r="T12">
-        <v>0.1257104822154488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.3345336666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.003601</v>
-      </c>
-      <c r="I13">
-        <v>0.1438915337637936</v>
-      </c>
-      <c r="J13">
-        <v>0.1438915337637936</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.132294</v>
-      </c>
-      <c r="N13">
-        <v>0.396882</v>
-      </c>
-      <c r="O13">
-        <v>0.02432884229548655</v>
-      </c>
-      <c r="P13">
-        <v>0.02432884229548654</v>
-      </c>
-      <c r="Q13">
-        <v>0.044256796898</v>
-      </c>
-      <c r="R13">
-        <v>0.398311172082</v>
-      </c>
-      <c r="S13">
-        <v>0.003500714432595013</v>
-      </c>
-      <c r="T13">
-        <v>0.003500714432595012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.076847</v>
-      </c>
-      <c r="H14">
-        <v>0.230541</v>
-      </c>
-      <c r="I14">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="J14">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.5547783333333334</v>
-      </c>
-      <c r="N14">
-        <v>1.664335</v>
-      </c>
-      <c r="O14">
-        <v>0.1020236335783901</v>
-      </c>
-      <c r="P14">
-        <v>0.1020236335783901</v>
-      </c>
-      <c r="Q14">
-        <v>0.04263305058166667</v>
-      </c>
-      <c r="R14">
-        <v>0.383697455235</v>
-      </c>
-      <c r="S14">
-        <v>0.003372276033007221</v>
-      </c>
-      <c r="T14">
-        <v>0.003372276033007221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.076847</v>
-      </c>
-      <c r="H15">
-        <v>0.230541</v>
-      </c>
-      <c r="I15">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="J15">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.750671</v>
-      </c>
-      <c r="N15">
-        <v>14.252013</v>
-      </c>
-      <c r="O15">
-        <v>0.8736475241261235</v>
-      </c>
-      <c r="P15">
-        <v>0.8736475241261233</v>
-      </c>
-      <c r="Q15">
-        <v>0.365074814337</v>
-      </c>
-      <c r="R15">
-        <v>3.285673329033</v>
-      </c>
-      <c r="S15">
-        <v>0.02887743264547542</v>
-      </c>
-      <c r="T15">
-        <v>0.02887743264547542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.076847</v>
-      </c>
-      <c r="H16">
-        <v>0.230541</v>
-      </c>
-      <c r="I16">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="J16">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.132294</v>
-      </c>
-      <c r="N16">
-        <v>0.396882</v>
-      </c>
-      <c r="O16">
-        <v>0.02432884229548655</v>
-      </c>
-      <c r="P16">
-        <v>0.02432884229548654</v>
-      </c>
-      <c r="Q16">
-        <v>0.010166397018</v>
-      </c>
-      <c r="R16">
-        <v>0.091497573162</v>
-      </c>
-      <c r="S16">
-        <v>0.000804162417140763</v>
-      </c>
-      <c r="T16">
-        <v>0.0008041624171407629</v>
+        <v>0.07569013070553075</v>
       </c>
     </row>
   </sheetData>
